--- a/mbs-perturbation/nano/welm/nearmiss/nano_welm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/nano/welm/nearmiss/nano_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8576555023923444</v>
+        <v>0.7493074792243768</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.6149584487534626</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.575</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.6382978723404255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6215538847117795</v>
+        <v>0.6204986149584487</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.725</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.65</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6278195488721805</v>
+        <v>0.6838235294117647</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6580487804878048</v>
+        <v>0.5906116642958749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4319252677147414</v>
+        <v>0.5055727554179567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.546915855948114</v>
+        <v>0.5120126288211394</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6685919343814081</v>
+        <v>0.6454823203519634</v>
       </c>
     </row>
   </sheetData>
